--- a/Data/Woodys.xlsx
+++ b/Data/Woodys.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knightsucfedu39751-my.sharepoint.com/personal/joshua_eubanks_knights_ucf_edu/Documents/Lecturer/TeachingMaterial/UCFInterview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucf-my.sharepoint.com/personal/jo585802_ucf_edu/Documents/Documents/GitHub/ECO6416/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_81AA60219F80DEF0D1AEB896DCE578759AF5FE24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8CD2032-D2F1-2443-95EE-6917EA82B2EA}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="11_81AA60219F80DEF0D1AEB896DCE578759AF5FE24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9F5CFD1-353A-44FA-BAC5-94B214496BA6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Woodys" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Woodys" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Sales</t>
   </si>
@@ -42,6 +43,78 @@
   </si>
   <si>
     <t>NCompetitor</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
   </si>
 </sst>
 </file>
@@ -52,7 +125,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -60,6 +133,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -78,14 +157,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -366,22 +473,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9386D-6396-4928-91FF-75D0DEBD0A99}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.78622764713759907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.61815391312352508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.57865259379147593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>14542.781195358137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9928901819.8929863</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3309633939.9643288</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15.648943467617041</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3.0582023974664533E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6133282061.9858046</v>
+      </c>
+      <c r="D13" s="2">
+        <v>211492484.89606223</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3">
+        <v>16062183881.878792</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>102192.42768211299</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12799.827732370602</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7.9838908631301058</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8.3460448358896993E-9</v>
+      </c>
+      <c r="F17" s="2">
+        <v>76013.840589676402</v>
+      </c>
+      <c r="G17" s="2">
+        <v>128371.01477454958</v>
+      </c>
+      <c r="H17" s="2">
+        <v>76013.840589676402</v>
+      </c>
+      <c r="I17" s="2">
+        <v>128371.01477454958</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-9074.6743993566888</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2052.673757060817</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-4.4209043780783439</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.2631496757870082E-4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-13272.863612925379</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-4876.4851857879994</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-13272.863612925379</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-4876.4851857879994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.35466836743703239</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7.2680770006937637E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4.8798102634737912</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3.5426108225003885E-5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.20601950220581391</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.5033172326682509</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.20601950220581391</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.5033172326682509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.2879233908621492</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.54329382460090703</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2.3705835268940016</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.4623446717056342E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.17676275640072769</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2.399084025323571</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.17676275640072769</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2.399084025323571</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>107919</v>
       </c>
@@ -409,7 +801,7 @@
         <v>13240</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>118866</v>
       </c>
@@ -423,7 +815,7 @@
         <v>22554</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>98579</v>
       </c>
@@ -437,7 +829,7 @@
         <v>16916</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>122015</v>
       </c>
@@ -451,7 +843,7 @@
         <v>20967</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>152827</v>
       </c>
@@ -465,7 +857,7 @@
         <v>19576</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>91259</v>
       </c>
@@ -479,7 +871,7 @@
         <v>15039</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>123550</v>
       </c>
@@ -493,7 +885,7 @@
         <v>21857</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>160931</v>
       </c>
@@ -507,7 +899,7 @@
         <v>26435</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>98496</v>
       </c>
@@ -521,7 +913,7 @@
         <v>24024</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>108052</v>
       </c>
@@ -535,7 +927,7 @@
         <v>14987</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>144788</v>
       </c>
@@ -549,7 +941,7 @@
         <v>30902</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>164571</v>
       </c>
@@ -563,7 +955,7 @@
         <v>31573</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>105564</v>
       </c>
@@ -577,7 +969,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>102568</v>
       </c>
@@ -591,7 +983,7 @@
         <v>20058</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>103342</v>
       </c>
@@ -605,7 +997,7 @@
         <v>16194</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>127030</v>
       </c>
@@ -619,7 +1011,7 @@
         <v>21384</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>166755</v>
       </c>
@@ -633,7 +1025,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>125343</v>
       </c>
@@ -647,7 +1039,7 @@
         <v>15289</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>121886</v>
       </c>
@@ -661,7 +1053,7 @@
         <v>16702</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>134594</v>
       </c>
@@ -675,7 +1067,7 @@
         <v>19093</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>152937</v>
       </c>
@@ -689,7 +1081,7 @@
         <v>26502</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>109622</v>
       </c>
@@ -703,7 +1095,7 @@
         <v>18760</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>149884</v>
       </c>
@@ -717,7 +1109,7 @@
         <v>33242</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>98388</v>
       </c>
@@ -731,7 +1123,7 @@
         <v>14988</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>140791</v>
       </c>
@@ -745,7 +1137,7 @@
         <v>18505</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>101260</v>
       </c>
@@ -759,7 +1151,7 @@
         <v>16839</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>139517</v>
       </c>
@@ -773,7 +1165,7 @@
         <v>28915</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>115236</v>
       </c>
@@ -787,7 +1179,7 @@
         <v>19033</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>136749</v>
       </c>
@@ -801,7 +1193,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>105067</v>
       </c>
@@ -815,7 +1207,7 @@
         <v>22833</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>136872</v>
       </c>
@@ -829,7 +1221,7 @@
         <v>14409</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>117146</v>
       </c>
@@ -843,7 +1235,7 @@
         <v>20307</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>163538</v>
       </c>

--- a/Data/Woodys.xlsx
+++ b/Data/Woodys.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucf-my.sharepoint.com/personal/jo585802_ucf_edu/Documents/Documents/GitHub/ECO6416/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_81AA60219F80DEF0D1AEB896DCE578759AF5FE24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9F5CFD1-353A-44FA-BAC5-94B214496BA6}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_81AA60219F80DEF0D1AEB896DCE578759AF5FE24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CC09C53-3371-456A-A9AF-3ABF87389F7F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Woodys" sheetId="1" r:id="rId2"/>
+    <sheet name="Woodys" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Sales</t>
   </si>
@@ -44,78 +43,6 @@
   <si>
     <t>NCompetitor</t>
   </si>
-  <si>
-    <t>SUMMARY OUTPUT</t>
-  </si>
-  <si>
-    <t>Regression Statistics</t>
-  </si>
-  <si>
-    <t>Multiple R</t>
-  </si>
-  <si>
-    <t>R Square</t>
-  </si>
-  <si>
-    <t>Adjusted R Square</t>
-  </si>
-  <si>
-    <t>Standard Error</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Residual</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Significance F</t>
-  </si>
-  <si>
-    <t>Coefficients</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P-value</t>
-  </si>
-  <si>
-    <t>Lower 95%</t>
-  </si>
-  <si>
-    <t>Upper 95%</t>
-  </si>
-  <si>
-    <t>Lower 95.0%</t>
-  </si>
-  <si>
-    <t>Upper 95.0%</t>
-  </si>
 </sst>
 </file>
 
@@ -125,7 +52,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -133,12 +60,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -157,42 +78,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -473,295 +366,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9386D-6396-4928-91FF-75D0DEBD0A99}">
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.78622764713759907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.61815391312352508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.57865259379147593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>14542.781195358137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9928901819.8929863</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3309633939.9643288</v>
-      </c>
-      <c r="E12" s="2">
-        <v>15.648943467617041</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3.0582023974664533E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2">
-        <v>6133282061.9858046</v>
-      </c>
-      <c r="D13" s="2">
-        <v>211492484.89606223</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3">
-        <v>16062183881.878792</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>102192.42768211299</v>
-      </c>
-      <c r="C17" s="2">
-        <v>12799.827732370602</v>
-      </c>
-      <c r="D17" s="2">
-        <v>7.9838908631301058</v>
-      </c>
-      <c r="E17" s="2">
-        <v>8.3460448358896993E-9</v>
-      </c>
-      <c r="F17" s="2">
-        <v>76013.840589676402</v>
-      </c>
-      <c r="G17" s="2">
-        <v>128371.01477454958</v>
-      </c>
-      <c r="H17" s="2">
-        <v>76013.840589676402</v>
-      </c>
-      <c r="I17" s="2">
-        <v>128371.01477454958</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2">
-        <v>-9074.6743993566888</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2052.673757060817</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-4.4209043780783439</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.2631496757870082E-4</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-13272.863612925379</v>
-      </c>
-      <c r="G18" s="2">
-        <v>-4876.4851857879994</v>
-      </c>
-      <c r="H18" s="2">
-        <v>-13272.863612925379</v>
-      </c>
-      <c r="I18" s="2">
-        <v>-4876.4851857879994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.35466836743703239</v>
-      </c>
-      <c r="C19" s="2">
-        <v>7.2680770006937637E-2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>4.8798102634737912</v>
-      </c>
-      <c r="E19" s="2">
-        <v>3.5426108225003885E-5</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.20601950220581391</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.5033172326682509</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.20601950220581391</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.5033172326682509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1.2879233908621492</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.54329382460090703</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2.3705835268940016</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2.4623446717056342E-2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.17676275640072769</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2.399084025323571</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.17676275640072769</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2.399084025323571</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
